--- a/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_1_community_jig.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/jigawa/oct 2024/ng_oncho_2410_1_community_jig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\jigawa\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF84F50-0E32-4CF8-B27E-C008AAE7FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C9536-40B1-4E77-896C-B78607691285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -242,9 +242,6 @@
     <t>site_id</t>
   </si>
   <si>
-    <t>ng_oncho_2408_1_com_jig</t>
-  </si>
-  <si>
     <t>JIGAWA</t>
   </si>
   <si>
@@ -302,7 +299,64 @@
     <t>JIG_GAR_A_024</t>
   </si>
   <si>
-    <t>(Jigawa) 1. Community Registration Form</t>
+    <t>AUYO</t>
+  </si>
+  <si>
+    <t>KAZAURE</t>
+  </si>
+  <si>
+    <t>KIRIKASAMA</t>
+  </si>
+  <si>
+    <t>MALLAM MADORI</t>
+  </si>
+  <si>
+    <t>RINGIM</t>
+  </si>
+  <si>
+    <t>TAURA</t>
+  </si>
+  <si>
+    <t>HADIYAU</t>
+  </si>
+  <si>
+    <t>GADA</t>
+  </si>
+  <si>
+    <t>TURABU</t>
+  </si>
+  <si>
+    <t>ARKI</t>
+  </si>
+  <si>
+    <t>GABARIN</t>
+  </si>
+  <si>
+    <t>DAURAWA</t>
+  </si>
+  <si>
+    <t>JIG_KIR_A_025</t>
+  </si>
+  <si>
+    <t>JIG_KAZ_A_026</t>
+  </si>
+  <si>
+    <t>JIG_RIN_A_027</t>
+  </si>
+  <si>
+    <t>JIG_MAM_A_028</t>
+  </si>
+  <si>
+    <t>JIG_AUY_A_029</t>
+  </si>
+  <si>
+    <t>JIG_TAU_A_030</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_1_com_jig_v2</t>
+  </si>
+  <si>
+    <t>(Jigawa) 1. Community Registration Form V2</t>
   </si>
 </sst>
 </file>
@@ -1230,11 +1284,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD27"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1303,10 +1357,10 @@
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,13 +1368,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,13 +1382,13 @@
         <v>57</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1342,13 +1396,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1356,13 +1410,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1370,13 +1424,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,187 +1438,439 @@
         <v>57</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="B38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="B40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1605,10 +1911,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
